--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H2">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N2">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O2">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P2">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q2">
-        <v>432.4047054212104</v>
+        <v>445.3629618108048</v>
       </c>
       <c r="R2">
-        <v>432.4047054212104</v>
+        <v>4008.266656297244</v>
       </c>
       <c r="S2">
-        <v>0.5518060297362853</v>
+        <v>0.5295895591308448</v>
       </c>
       <c r="T2">
-        <v>0.5518060297362853</v>
+        <v>0.5295895591308448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H3">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N3">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O3">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P3">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q3">
-        <v>46.34705811636221</v>
+        <v>50.89422385115022</v>
       </c>
       <c r="R3">
-        <v>46.34705811636221</v>
+        <v>458.048014660352</v>
       </c>
       <c r="S3">
-        <v>0.05914502272641601</v>
+        <v>0.06051928849684435</v>
       </c>
       <c r="T3">
-        <v>0.05914502272641601</v>
+        <v>0.06051928849684434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H4">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I4">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J4">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N4">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O4">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P4">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q4">
-        <v>14.32447757259854</v>
+        <v>17.44111568933177</v>
       </c>
       <c r="R4">
-        <v>14.32447757259854</v>
+        <v>156.970041203986</v>
       </c>
       <c r="S4">
-        <v>0.018279942374083</v>
+        <v>0.02073956202174508</v>
       </c>
       <c r="T4">
-        <v>0.018279942374083</v>
+        <v>0.02073956202174508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H5">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I5">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J5">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N5">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O5">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P5">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q5">
-        <v>12.45624772509</v>
+        <v>14.75966573311178</v>
       </c>
       <c r="R5">
-        <v>12.45624772509</v>
+        <v>132.836991598006</v>
       </c>
       <c r="S5">
-        <v>0.01589583211380196</v>
+        <v>0.01755099893519629</v>
       </c>
       <c r="T5">
-        <v>0.01589583211380196</v>
+        <v>0.01755099893519629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H6">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I6">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J6">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.019429305673169</v>
+        <v>9.052748666666666</v>
       </c>
       <c r="N6">
-        <v>8.019429305673169</v>
+        <v>27.158246</v>
       </c>
       <c r="O6">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="P6">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="Q6">
-        <v>186.5770250710605</v>
+        <v>213.6651044441862</v>
       </c>
       <c r="R6">
-        <v>186.5770250710605</v>
+        <v>1922.985939997676</v>
       </c>
       <c r="S6">
-        <v>0.2380971486981861</v>
+        <v>0.254073235017491</v>
       </c>
       <c r="T6">
-        <v>0.2380971486981861</v>
+        <v>0.2540732350174909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H7">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J7">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N7">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O7">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P7">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q7">
-        <v>47.78848789827818</v>
+        <v>49.68727009131601</v>
       </c>
       <c r="R7">
-        <v>47.78848789827818</v>
+        <v>447.1854308218441</v>
       </c>
       <c r="S7">
-        <v>0.06098447922430007</v>
+        <v>0.05908407685067821</v>
       </c>
       <c r="T7">
-        <v>0.06098447922430007</v>
+        <v>0.0590840768506782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H8">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I8">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J8">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N8">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O8">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P8">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q8">
-        <v>5.12218252518102</v>
+        <v>5.678054224128001</v>
       </c>
       <c r="R8">
-        <v>5.12218252518102</v>
+        <v>51.10248801715201</v>
       </c>
       <c r="S8">
-        <v>0.006536587524068316</v>
+        <v>0.006751882152594455</v>
       </c>
       <c r="T8">
-        <v>0.006536587524068316</v>
+        <v>0.006751882152594453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H9">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I9">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J9">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N9">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O9">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P9">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q9">
-        <v>1.58311210434322</v>
+        <v>1.945831827654</v>
       </c>
       <c r="R9">
-        <v>1.58311210434322</v>
+        <v>17.512486448886</v>
       </c>
       <c r="S9">
-        <v>0.002020262022991014</v>
+        <v>0.002313825594207838</v>
       </c>
       <c r="T9">
-        <v>0.002020262022991014</v>
+        <v>0.002313825594207837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H10">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I10">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J10">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N10">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O10">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P10">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q10">
-        <v>1.376639144314038</v>
+        <v>1.646673748434</v>
       </c>
       <c r="R10">
-        <v>1.376639144314038</v>
+        <v>14.820063735906</v>
       </c>
       <c r="S10">
-        <v>0.001756775009799013</v>
+        <v>0.001958091038643576</v>
       </c>
       <c r="T10">
-        <v>0.001756775009799013</v>
+        <v>0.001958091038643575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H11">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I11">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J11">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.019429305673169</v>
+        <v>9.052748666666666</v>
       </c>
       <c r="N11">
-        <v>8.019429305673169</v>
+        <v>27.158246</v>
       </c>
       <c r="O11">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="P11">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="Q11">
-        <v>20.62011303974991</v>
+        <v>23.837715894564</v>
       </c>
       <c r="R11">
-        <v>20.62011303974991</v>
+        <v>214.539443051076</v>
       </c>
       <c r="S11">
-        <v>0.02631401223558395</v>
+        <v>0.028345880851788</v>
       </c>
       <c r="T11">
-        <v>0.02631401223558395</v>
+        <v>0.02834588085178799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H12">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I12">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J12">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N12">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O12">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P12">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q12">
-        <v>9.382177529776943</v>
+        <v>9.625992386146889</v>
       </c>
       <c r="R12">
-        <v>9.382177529776943</v>
+        <v>86.633931475322</v>
       </c>
       <c r="S12">
-        <v>0.01197290887004592</v>
+        <v>0.01144645042607296</v>
       </c>
       <c r="T12">
-        <v>0.01197290887004592</v>
+        <v>0.01144645042607295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H13">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I13">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J13">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N13">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O13">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P13">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q13">
-        <v>1.0056234860049</v>
+        <v>1.100018307086222</v>
       </c>
       <c r="R13">
-        <v>1.0056234860049</v>
+        <v>9.900164763775999</v>
       </c>
       <c r="S13">
-        <v>0.001283309585360278</v>
+        <v>0.001308052667687099</v>
       </c>
       <c r="T13">
-        <v>0.001283309585360278</v>
+        <v>0.001308052667687098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H14">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I14">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J14">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N14">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O14">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P14">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q14">
-        <v>0.3108078841938417</v>
+        <v>0.3769690370047778</v>
       </c>
       <c r="R14">
-        <v>0.3108078841938417</v>
+        <v>3.392721333043</v>
       </c>
       <c r="S14">
-        <v>0.0003966322809107114</v>
+        <v>0.0004482610437599618</v>
       </c>
       <c r="T14">
-        <v>0.0003966322809107114</v>
+        <v>0.0004482610437599617</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H15">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I15">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J15">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N15">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O15">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P15">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q15">
-        <v>0.270271636840384</v>
+        <v>0.3190126753947778</v>
       </c>
       <c r="R15">
-        <v>0.270271636840384</v>
+        <v>2.871114078553</v>
       </c>
       <c r="S15">
-        <v>0.0003449026271116612</v>
+        <v>0.0003793440330838328</v>
       </c>
       <c r="T15">
-        <v>0.0003449026271116612</v>
+        <v>0.0003793440330838326</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H16">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I16">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J16">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.019429305673169</v>
+        <v>9.052748666666666</v>
       </c>
       <c r="N16">
-        <v>8.019429305673169</v>
+        <v>27.158246</v>
       </c>
       <c r="O16">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="P16">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="Q16">
-        <v>4.048287981716463</v>
+        <v>4.618117905904223</v>
       </c>
       <c r="R16">
-        <v>4.048287981716463</v>
+        <v>41.56306115313799</v>
       </c>
       <c r="S16">
-        <v>0.005166154971056669</v>
+        <v>0.005491491739362558</v>
       </c>
       <c r="T16">
-        <v>0.005166154971056669</v>
+        <v>0.005491491739362557</v>
       </c>
     </row>
   </sheetData>
